--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163309.5618902154</v>
+        <v>-165993.6872024435</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.0755486</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616883</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>129.6307035692649</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386857</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>216.9464797872427</v>
+        <v>224.0310250146329</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261747</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323608</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199319</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156101</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973762</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>118.0351350612796</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7599048465899</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842208</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>197.5339758908239</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861688</v>
+        <v>234.5662103922093</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716168</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241004389</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
-        <v>40.5399794525604</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261747</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323608</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199319</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156101</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973762</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>39.27746702240277</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842208</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063208</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371261</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>63.89737683230834</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>78.65229023784484</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>131.9250605026922</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>74.64593063009548</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>147.0694199332222</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>12.96996784159912</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>37.41782514683995</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>120.6889225686084</v>
+        <v>5.623597659135752</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.9838498346371</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.33239976701595</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126612</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>33.45472478220952</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>86.09789039964318</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,16 +2770,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>152.829112101962</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>192.7715349547537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>247.5867185477173</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710092</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>226.5568791389291</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634557</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128565</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364138</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154444</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.246821098627</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.869677406335477e-13</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E43" t="n">
-        <v>-8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292268</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462231</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.026286001644</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053488</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892432</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238271</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365901</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890363</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520939</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128565</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364138</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154444</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.246821098627</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.524138292268</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462231</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788182027</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>181.026286001644</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272875</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892432</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238271</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365901</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890363</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520939</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1436.839435877093</v>
+        <v>942.1294794137582</v>
       </c>
       <c r="C2" t="n">
-        <v>1067.876918936682</v>
+        <v>942.1294794137582</v>
       </c>
       <c r="D2" t="n">
-        <v>709.6112203299313</v>
+        <v>583.8637808070077</v>
       </c>
       <c r="E2" t="n">
-        <v>323.8229677316871</v>
+        <v>583.8637808070077</v>
       </c>
       <c r="F2" t="n">
-        <v>316.8774669824836</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="G2" t="n">
-        <v>303.8179806328181</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760173991</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>240.3507333903797</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K2" t="n">
-        <v>642.3082349403426</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L2" t="n">
-        <v>1042.407704672355</v>
+        <v>704.9390792031114</v>
       </c>
       <c r="M2" t="n">
-        <v>1227.023259395732</v>
+        <v>1334.573032084389</v>
       </c>
       <c r="N2" t="n">
-        <v>1419.239895182987</v>
+        <v>1959.763123039503</v>
       </c>
       <c r="O2" t="n">
-        <v>1964.401531937487</v>
+        <v>2493.174093780568</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239687</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724208</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.904379724208</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.904379724208</v>
+        <v>2479.413416894737</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.904379724208</v>
+        <v>2479.413416894737</v>
       </c>
       <c r="U2" t="n">
-        <v>2382.21170777924</v>
+        <v>2225.720744949768</v>
       </c>
       <c r="V2" t="n">
-        <v>2382.21170777924</v>
+        <v>1894.657857606197</v>
       </c>
       <c r="W2" t="n">
-        <v>2029.443052509125</v>
+        <v>1541.889202336083</v>
       </c>
       <c r="X2" t="n">
-        <v>1655.977294248046</v>
+        <v>1168.423444075004</v>
       </c>
       <c r="Y2" t="n">
-        <v>1436.839435877093</v>
+        <v>942.1294794137582</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120969</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309699</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697187</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642632</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911483</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640332</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815696</v>
+        <v>98.84600463815747</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320031</v>
+        <v>381.1211448320009</v>
       </c>
       <c r="L3" t="n">
-        <v>884.103979029117</v>
+        <v>884.103979029112</v>
       </c>
       <c r="M3" t="n">
-        <v>1523.040444009839</v>
+        <v>1523.04044400983</v>
       </c>
       <c r="N3" t="n">
-        <v>2033.221194028211</v>
+        <v>1720.045718791139</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149926</v>
+        <v>2267.970957996813</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877463</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724208</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.39023326765</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373094</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.648482162596</v>
+        <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930853</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.407516997119</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232165</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>469.1820416982442</v>
+        <v>666.5739510150303</v>
       </c>
       <c r="C4" t="n">
-        <v>469.1820416982442</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D4" t="n">
-        <v>469.1820416982442</v>
+        <v>347.5211286747877</v>
       </c>
       <c r="E4" t="n">
-        <v>469.1820416982442</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F4" t="n">
-        <v>469.1820416982442</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G4" t="n">
-        <v>349.9546325454365</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>195.6516983569618</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>70.97668332239536</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919747</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482357</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628202</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543829</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917174</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327095</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.75168442187</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442187</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442187</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.75168442187</v>
+        <v>848.22241584527</v>
       </c>
       <c r="U4" t="n">
-        <v>758.5992117352048</v>
+        <v>848.22241584527</v>
       </c>
       <c r="V4" t="n">
-        <v>758.5992117352048</v>
+        <v>848.22241584527</v>
       </c>
       <c r="W4" t="n">
-        <v>469.1820416982442</v>
+        <v>848.22241584527</v>
       </c>
       <c r="X4" t="n">
-        <v>469.1820416982442</v>
+        <v>848.22241584527</v>
       </c>
       <c r="Y4" t="n">
-        <v>469.1820416982442</v>
+        <v>848.22241584527</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1953.90177501142</v>
+        <v>1893.897239097003</v>
       </c>
       <c r="C5" t="n">
-        <v>1584.939258071008</v>
+        <v>1524.934722156592</v>
       </c>
       <c r="D5" t="n">
-        <v>1584.939258071008</v>
+        <v>1524.934722156592</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.151005472764</v>
+        <v>1139.146469558347</v>
       </c>
       <c r="F5" t="n">
-        <v>788.1651006831567</v>
+        <v>728.16056476874</v>
       </c>
       <c r="G5" t="n">
-        <v>371.0652102930871</v>
+        <v>491.2249987160033</v>
       </c>
       <c r="H5" t="n">
-        <v>52.71808759448417</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>156.098299671743</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K5" t="n">
-        <v>237.1518427762528</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6076920998912</v>
+        <v>693.1884131896807</v>
       </c>
       <c r="M5" t="n">
-        <v>1004.241644981173</v>
+        <v>1322.822366070958</v>
       </c>
       <c r="N5" t="n">
-        <v>1629.431735936292</v>
+        <v>1948.012457026072</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.593372690792</v>
+        <v>2493.174093780568</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992993</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724208</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2594.194287020511</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2594.194287020511</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="U5" t="n">
-        <v>2340.501615075542</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="V5" t="n">
-        <v>2340.501615075542</v>
+        <v>1893.897239097003</v>
       </c>
       <c r="W5" t="n">
-        <v>2340.501615075542</v>
+        <v>1893.897239097003</v>
       </c>
       <c r="X5" t="n">
-        <v>2340.501615075542</v>
+        <v>1893.897239097003</v>
       </c>
       <c r="Y5" t="n">
-        <v>2340.501615075542</v>
+        <v>1893.897239097003</v>
       </c>
     </row>
     <row r="6">
@@ -4620,61 +4620,61 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120977</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309707</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697194</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642639</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911488</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640332</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815698</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448320031</v>
+        <v>381.1211448320009</v>
       </c>
       <c r="L6" t="n">
-        <v>884.103979029117</v>
+        <v>884.103979029112</v>
       </c>
       <c r="M6" t="n">
-        <v>1523.040444009839</v>
+        <v>1523.04044400983</v>
       </c>
       <c r="N6" t="n">
-        <v>1720.045718791151</v>
+        <v>1825.24467916973</v>
       </c>
       <c r="O6" t="n">
-        <v>2267.970957996828</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877463</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724208</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.39023326765</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.803105373094</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
         <v>2039.648482162597</v>
@@ -4683,7 +4683,7 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X6" t="n">
         <v>1342.40751699712</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.5416458548722</v>
+        <v>537.5419352413691</v>
       </c>
       <c r="C7" t="n">
-        <v>342.5416458548722</v>
+        <v>537.5419352413691</v>
       </c>
       <c r="D7" t="n">
-        <v>342.5416458548722</v>
+        <v>537.5419352413691</v>
       </c>
       <c r="E7" t="n">
-        <v>342.5416458548722</v>
+        <v>389.6288416589759</v>
       </c>
       <c r="F7" t="n">
-        <v>195.6516983569618</v>
+        <v>389.6288416589759</v>
       </c>
       <c r="G7" t="n">
-        <v>195.6516983569618</v>
+        <v>349.9546325454378</v>
       </c>
       <c r="H7" t="n">
-        <v>195.6516983569618</v>
+        <v>195.651698356963</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239536</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919747</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482357</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628202</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543829</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917174</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327095</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.75168442187</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>917.0295025661871</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S7" t="n">
-        <v>852.4866976850676</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T7" t="n">
-        <v>852.4866976850676</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U7" t="n">
-        <v>563.3342249984023</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="V7" t="n">
-        <v>563.3342249984023</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="W7" t="n">
-        <v>563.3342249984023</v>
+        <v>758.3345143848992</v>
       </c>
       <c r="X7" t="n">
-        <v>563.3342249984023</v>
+        <v>758.3345143848992</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.5416458548722</v>
+        <v>537.5419352413691</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1366.855088625721</v>
+        <v>1386.272997345798</v>
       </c>
       <c r="C8" t="n">
-        <v>1366.855088625721</v>
+        <v>1386.272997345798</v>
       </c>
       <c r="D8" t="n">
-        <v>1366.855088625721</v>
+        <v>1386.272997345798</v>
       </c>
       <c r="E8" t="n">
-        <v>981.0668360274763</v>
+        <v>1000.484744747554</v>
       </c>
       <c r="F8" t="n">
-        <v>570.0809312378688</v>
+        <v>589.498839957946</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6341734218639</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="H8" t="n">
         <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082205</v>
+        <v>73.9523375878675</v>
       </c>
       <c r="K8" t="n">
-        <v>392.8902124086421</v>
+        <v>156.5154921624599</v>
       </c>
       <c r="L8" t="n">
-        <v>532.2188682498953</v>
+        <v>683.9992506428529</v>
       </c>
       <c r="M8" t="n">
-        <v>1163.936679233207</v>
+        <v>1315.717061626165</v>
       </c>
       <c r="N8" t="n">
-        <v>1791.244347293054</v>
+        <v>1943.024729686011</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610013</v>
+        <v>2490.185934453089</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949308</v>
+        <v>2600.920259702615</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724208</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724208</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.689342221036</v>
+        <v>2502.646742852804</v>
       </c>
       <c r="T8" t="n">
-        <v>2479.689342221036</v>
+        <v>2502.646742852804</v>
       </c>
       <c r="U8" t="n">
-        <v>2479.689342221036</v>
+        <v>2502.646742852804</v>
       </c>
       <c r="V8" t="n">
-        <v>2479.689342221036</v>
+        <v>2502.646742852804</v>
       </c>
       <c r="W8" t="n">
-        <v>2126.920686950922</v>
+        <v>2149.87808758269</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.454928689842</v>
+        <v>1776.41232932161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1753.454928689842</v>
+        <v>1386.272997345798</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416769</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513798</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571897</v>
+        <v>382.1464919002941</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>886.5080317664126</v>
       </c>
       <c r="M9" t="n">
-        <v>1440.265684947312</v>
+        <v>1066.005368121017</v>
       </c>
       <c r="N9" t="n">
-        <v>1638.922426599977</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.3584353527</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.326203833537</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>501.7757717750226</v>
+        <v>200.6311811768773</v>
       </c>
       <c r="C10" t="n">
-        <v>501.7757717750226</v>
+        <v>200.6311811768773</v>
       </c>
       <c r="D10" t="n">
-        <v>501.7757717750226</v>
+        <v>200.6311811768773</v>
       </c>
       <c r="E10" t="n">
-        <v>353.8626781926295</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F10" t="n">
-        <v>206.9727306947191</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>206.9727306947191</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4984,28 +4984,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>977.2528391244396</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>977.2528391244396</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>977.2528391244396</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>977.2528391244396</v>
+        <v>904.0977994243116</v>
       </c>
       <c r="V10" t="n">
-        <v>722.5683509185527</v>
+        <v>649.4133112184247</v>
       </c>
       <c r="W10" t="n">
-        <v>722.5683509185527</v>
+        <v>649.4133112184247</v>
       </c>
       <c r="X10" t="n">
-        <v>722.5683509185527</v>
+        <v>421.4237603204074</v>
       </c>
       <c r="Y10" t="n">
-        <v>501.7757717750226</v>
+        <v>200.6311811768773</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5021,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.681434529217</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>860.74525160131</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6286121889742</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7155186065811</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8255711086707</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>248.6294718235507</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>106.9176406657488</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2409.167300603654</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2226.312466258559</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2006.7110012815</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1717.635774625697</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1462.95128641981</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1173.53411638285</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>945.5445654848324</v>
       </c>
       <c r="Y13" t="n">
-        <v>1211.329899359456</v>
+        <v>724.7519863413023</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>962.6357307816191</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>793.6995478537123</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925226</v>
+        <v>643.5829084413765</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925226</v>
+        <v>495.6698148589834</v>
       </c>
       <c r="F16" t="n">
-        <v>297.8113689946122</v>
+        <v>348.779867361073</v>
       </c>
       <c r="G16" t="n">
-        <v>297.8113689946122</v>
+        <v>181.5837680759529</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>945.4026036630031</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>776.4664207350962</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>626.3497813227605</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>478.4366877403673</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741511</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806533</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>945.4026036630031</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M24" t="n">
-        <v>924.8344286397182</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1552.432392194325</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2359.995517520015</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2140.394052542956</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6783,22 +6783,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.8412329032296</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1727.373486017864</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>1472.688997811978</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1183.271827775017</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>955.2822768769995</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>734.4896977334694</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>641.1291986799072</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675715</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1815.661451794542</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1560.976963588655</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1271.559793551694</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1043.570242653677</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>822.7776635101469</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551901</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611489</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004739</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406495</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616887</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362944</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304799728</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638195004</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111926</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075973</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332398</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014784</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068002</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694694</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,52 +7464,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300131</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568981</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028059</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273844</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273844</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273844</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273844</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438343</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998436</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237719</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732783</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107664</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7521,7 +7521,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
         <v>1781.463605996603</v>
@@ -7530,7 +7530,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
         <v>1111.614450297915</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764187956</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908896</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908914</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908923</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057731</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797717</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580252</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832654</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487559</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189227</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533426</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.50854132754</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.09137129058</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925637</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490345</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192464</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111672</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611076178</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332418</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014804</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355956</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068023</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694715</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,52 +7701,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300131</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568981</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028059</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438343</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998436</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237719</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732783</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107664</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7758,7 +7758,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
         <v>1781.463605996603</v>
@@ -7767,7 +7767,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
         <v>1111.614450297915</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876672</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597612</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597612</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597621</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>411.963121559763</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746438</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168426</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797717</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580252</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580252</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235157</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258099</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602298</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396411</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359452</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614353</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317906</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>265.2965862710845</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>368.930821653219</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026545184</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>316.3388638758184</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>240.9393132390475</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>83.99314676941046</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>405.7918549409245</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026545184</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,16 +8304,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>106.261576139991</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>240.939313239026</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>69.66572851093866</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>392.0758612516564</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8465,13 +8465,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>258.1828939084838</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>167.9634363311153</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.124080957929972e-13</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>4.627054295269772e-11</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>392.5129099497574</v>
       </c>
       <c r="H2" t="n">
-        <v>185.532947902352</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241004389</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011776</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723317</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>162.2069136414207</v>
       </c>
     </row>
     <row r="3">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>68.2958684769664</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012336</v>
+        <v>28.95742156328174</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>19.60579027761548</v>
+        <v>134.6711151870881</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016455</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>11.4371981882941</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.2522535850788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>145.6085800303785</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>112.9792378643596</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>94.92839560200142</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.75554125013275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.63391537253457</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>38.5977558415268</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>59.62759525031504</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856514</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392193864</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182115</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.1196935303831</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012152</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1080209.852055286</v>
+        <v>1080209.852055287</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1182726.215751749</v>
+        <v>1182726.21575175</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279931.6554182526</v>
+        <v>279931.6554182527</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="E2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="F2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="G2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="H2" t="n">
         <v>302679.9748837524</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="J2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="L2" t="n">
         <v>302679.9748837521</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="N2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="I2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="J2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="P2" t="n">
         <v>302679.9748837523</v>
-      </c>
-      <c r="L2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="M2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302679.9748837524</v>
-      </c>
-      <c r="O2" t="n">
-        <v>302679.9748837523</v>
-      </c>
-      <c r="P2" t="n">
-        <v>302679.9748837522</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222475</v>
+        <v>789845.9331222414</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448468707</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329926</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821402</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663869</v>
+        <v>128024.1174663867</v>
       </c>
       <c r="N3" t="n">
-        <v>3.73809990409866e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.886800619490516e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141881.4568282295</v>
+        <v>141881.4568282306</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408948</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="D4" t="n">
-        <v>183932.5854660026</v>
+        <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.48053169506</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695059</v>
-      </c>
       <c r="I4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="J4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695061</v>
       </c>
-      <c r="K4" t="n">
-        <v>6287.48053169506</v>
-      </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695072</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531694971</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531696466</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531696173</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538454</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538454</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917779</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26503,13 +26503,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-738361.8546576089</v>
+        <v>-738548.2480461427</v>
       </c>
       <c r="C6" t="n">
-        <v>36888.20303282712</v>
+        <v>36888.20303282613</v>
       </c>
       <c r="D6" t="n">
-        <v>34773.2112254571</v>
+        <v>34773.2112254517</v>
       </c>
       <c r="E6" t="n">
-        <v>-580354.3077048423</v>
+        <v>-580389.0456302781</v>
       </c>
       <c r="F6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027142</v>
       </c>
       <c r="G6" t="n">
-        <v>195269.9645281501</v>
+        <v>195235.2266027146</v>
       </c>
       <c r="H6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027145</v>
       </c>
       <c r="I6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027142</v>
       </c>
       <c r="J6" t="n">
-        <v>22852.82314600972</v>
+        <v>22818.08522057407</v>
       </c>
       <c r="K6" t="n">
-        <v>195269.9645281501</v>
+        <v>195235.2266027143</v>
       </c>
       <c r="L6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027142</v>
       </c>
       <c r="M6" t="n">
-        <v>67245.84706176318</v>
+        <v>67211.10913632772</v>
       </c>
       <c r="N6" t="n">
-        <v>195269.96452815</v>
+        <v>195235.2266027143</v>
       </c>
       <c r="O6" t="n">
-        <v>195269.9645281543</v>
+        <v>195235.2266027145</v>
       </c>
       <c r="P6" t="n">
-        <v>195269.9645281491</v>
+        <v>195235.2266027144</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053469</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053469</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26774,10 +26774,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341665</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341665</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310521</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310521</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310521</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26823,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.513282116092246e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053469</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.98190063271818</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26993,10 +26993,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-9.322320693172514e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310521</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685963</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310522</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685963</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310521</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685963</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>20.41598153641149</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>169.2914588688109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>48.89101869115312</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371261</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937731</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207157</v>
+        <v>25.86190412989183</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>178.3626810939596</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386857</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>114.3860737486172</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723317</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>127.64868673003</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7599048465899</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
-        <v>141.5622149614647</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207157</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>334.2646137080919</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>22.72782662544799</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>54.52725103769583</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,7 +28065,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>139.1912347248748</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.481726824044017e-11</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.869677406335477e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966217</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415027</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903172017</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009716</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071117</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160866</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337145</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635148</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O2" t="n">
-        <v>399.966350112982</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728784</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605257</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170492</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506772</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179962</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172973</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366218</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H3" t="n">
-        <v>12.266681393879</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I3" t="n">
-        <v>43.729994978179</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401215</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976581</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623887</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M3" t="n">
-        <v>321.819338839414</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351638</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492071</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789754</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190983</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064995</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822776</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445412</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830384</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026035</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849666</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I4" t="n">
-        <v>32.0222100430375</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034604069</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546612</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177253</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M4" t="n">
-        <v>166.916253860972</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203297</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953891</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324579</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550738</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004336</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319917</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565786</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232926</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966217</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415027</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903172017</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009716</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071117</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160866</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337145</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635148</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.966350112982</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728784</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605257</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170492</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506772</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179962</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172973</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366218</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.266681393879</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.729994978179</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401215</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976581</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623887</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.819338839414</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351638</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492071</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789754</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190983</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064995</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822776</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445412</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830384</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026035</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849666</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.0222100430375</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034604069</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546612</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177253</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
-        <v>166.916253860972</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203297</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953891</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324579</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550738</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004336</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319917</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565786</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232926</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8027404478649</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33503,7 +33503,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348398</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135304</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067218</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663252</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.544175081753</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162505</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175612</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159362</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626459968</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236456</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669184</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043703</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292892</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651512</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078717</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865943</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521082</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007743</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987615093</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071735</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437197</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214661</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485266</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418549</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742403</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937726</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275942</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189887</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121556</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869227</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.405663379625</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355159</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588129</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.688550039202</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106764</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920035</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417295</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515914</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670471</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532738</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099315</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467213</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348398</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135304</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067218</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663252</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.544175081753</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162505</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175612</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159362</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626459968</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236456</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669184</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043703</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292892</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651512</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078717</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865943</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521082</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071735</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437197</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214661</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485266</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418549</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742403</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937726</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275942</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189887</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121556</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869227</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.405663379625</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355159</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588129</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.688550039202</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106764</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920035</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417295</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515914</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670471</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532738</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099315</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467213</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5279250463591</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332959</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L2" t="n">
-        <v>404.1408785171839</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M2" t="n">
-        <v>186.4803583064418</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
-        <v>194.1582179669239</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540406</v>
+        <v>538.79896034451</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9277386890915</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459809</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358777</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859737</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673956</v>
+        <v>645.3903686673921</v>
       </c>
       <c r="N3" t="n">
-        <v>515.334090927649</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O3" t="n">
-        <v>159.5975183047627</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045823</v>
+        <v>349.5020423036901</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307677</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287783</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780414</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228126</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995583</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094288</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973514</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812998</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>104.4244566436958</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576213112</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L5" t="n">
-        <v>138.8442922460994</v>
+        <v>544.6361471870198</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992743</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789081</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540406</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890915</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607624</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358777</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859737</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673956</v>
+        <v>645.3903686673921</v>
       </c>
       <c r="N6" t="n">
-        <v>198.9952270518305</v>
+        <v>305.2568031918179</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814921</v>
+        <v>159.5975183047594</v>
       </c>
       <c r="P6" t="n">
-        <v>349.5020423036712</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307677</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287783</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780414</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228126</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995583</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094288</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973514</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812998</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>153.0628543438602</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>532.8118772529223</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
@@ -35185,13 +35185,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,10 +35258,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>439.4933346707109</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>368.6268117378473</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191305</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066238</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>310.2064960034205</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315892</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039639</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367724</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462633</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902885</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193452</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.48865122431</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683761</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924689</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902382</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774261</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394909</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238402</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992753</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071359</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625051</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789091</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295313</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060441</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066239</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315892</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039639</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240368187</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462633</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902885</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193452</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.48865122431</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683761</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924689</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902382</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402651</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238402</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992753</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071359</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625051</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789091</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295313</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060441</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066239</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
